--- a/Trader_Price_List.xlsx
+++ b/Trader_Price_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninonaru\Desktop\Game mods\Mindustry logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17F5B6-4DA7-4FF9-B341-85C860E14175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6120378-B95D-41E8-98A8-95E7689B796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1425" windowWidth="17235" windowHeight="12210" xr2:uid="{80F1328F-6F9C-4C59-B400-C3A42F8776D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80F1328F-6F9C-4C59-B400-C3A42F8776D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>銅</t>
     <rPh sb="0" eb="1">
@@ -158,37 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ベース売価</t>
-    <rPh sb="3" eb="5">
-      <t>バイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベース買価</t>
-    <rPh sb="3" eb="5">
-      <t>バイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料費</t>
-    <rPh sb="0" eb="3">
-      <t>ザイリョウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工程数</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>水</t>
     <rPh sb="0" eb="1">
       <t>ミズ</t>
@@ -241,6 +210,22 @@
   </si>
   <si>
     <t>アーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -265,12 +250,150 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF220EBA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2958EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B92F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3BE8F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8EF29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29EF70"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFD329"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF7429"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF2929"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEF29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29EFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,8 +410,77 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -297,6 +489,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2929EF"/>
+      <color rgb="FF29EFEF"/>
+      <color rgb="FFEF2929"/>
+      <color rgb="FFEF4129"/>
+      <color rgb="FFEFEF29"/>
+      <color rgb="FFEF5829"/>
+      <color rgb="FF2958EF"/>
+      <color rgb="FF220EBA"/>
+      <color rgb="FFEF7429"/>
+      <color rgb="FFEFD329"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -625,554 +831,830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B06547-51D5-4F54-8308-CB4342E19EF7}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I19" sqref="I18:I19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>B2*2^C2</f>
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="E2">
-        <f>D2*0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="F2">
-        <f>D2*1.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f>1/I2</f>
+        <v>4.608294930875576E-3</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+      <c r="J2">
+        <v>217</v>
+      </c>
+      <c r="K2">
+        <v>217</v>
+      </c>
+      <c r="L2">
+        <f>I2*256*256+J2*256+K2</f>
+        <v>14277081</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="R2">
+        <v>217</v>
+      </c>
+      <c r="S2">
+        <v>217</v>
+      </c>
+      <c r="T2">
+        <v>217</v>
+      </c>
+      <c r="U2">
+        <f>R2*256*256+S2*256+T2</f>
+        <v>14277081</v>
+      </c>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="AA2">
+        <v>180</v>
+      </c>
+      <c r="AB2">
+        <v>180</v>
+      </c>
+      <c r="AC2">
+        <v>180</v>
+      </c>
+      <c r="AD2">
+        <f>AA2*256*256+AB2*256+AC2</f>
+        <v>11842740</v>
+      </c>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1.2</v>
       </c>
-      <c r="C3">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">B3*2^C3</f>
-        <v>1.2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E21" si="1">D3*0.8</f>
-        <v>0.96</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F21" si="2">D3*1.5</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>I3*256*256+J3*256+K3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="11"/>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>R3*256*256+S3*256+T3</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="11"/>
+      <c r="AA3">
+        <v>41</v>
+      </c>
+      <c r="AB3">
+        <v>41</v>
+      </c>
+      <c r="AC3">
+        <v>239</v>
+      </c>
+      <c r="AD3">
+        <f>AA3*256*256+AB3*256+AC3</f>
+        <v>2697711</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="11"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="J4">
+        <v>53</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="0">I4*256*256+J4*256+K4</f>
+        <v>8271118</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="11"/>
+      <c r="R4">
+        <v>34</v>
+      </c>
+      <c r="S4">
+        <v>14</v>
+      </c>
+      <c r="T4">
+        <v>186</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U12" si="1">R4*256*256+S4*256+T4</f>
+        <v>2231994</v>
+      </c>
+      <c r="V4" s="11"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="11"/>
+      <c r="AA4">
+        <v>41</v>
+      </c>
+      <c r="AB4">
+        <v>239</v>
+      </c>
+      <c r="AC4">
+        <v>239</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD12" si="2">AA4*256*256+AB4*256+AC4</f>
+        <v>2748399</v>
+      </c>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E5">
+        <v>16711680</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="11"/>
+      <c r="R5">
+        <v>41</v>
+      </c>
+      <c r="S5">
+        <v>88</v>
+      </c>
+      <c r="T5">
+        <v>239</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="F5">
+        <v>2709743</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="11"/>
+      <c r="AA5">
+        <v>239</v>
+      </c>
+      <c r="AB5">
+        <v>239</v>
+      </c>
+      <c r="AC5">
+        <v>41</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="2"/>
-        <v>10.5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>15724329</v>
+      </c>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="11"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.6</v>
       </c>
-      <c r="C6">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>192</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="L6">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="E6">
+        <v>16760832</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="11"/>
+      <c r="R6">
+        <v>59</v>
+      </c>
+      <c r="S6">
+        <v>146</v>
+      </c>
+      <c r="T6">
+        <v>241</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-      <c r="F6">
+        <v>3904241</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="11"/>
+      <c r="AA6">
+        <v>239</v>
+      </c>
+      <c r="AB6">
+        <v>41</v>
+      </c>
+      <c r="AC6">
+        <v>41</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>15673641</v>
+      </c>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.5</v>
       </c>
-      <c r="C7">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>255</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E7">
+        <v>16776960</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="11"/>
+      <c r="R7">
+        <v>59</v>
+      </c>
+      <c r="S7">
+        <v>232</v>
+      </c>
+      <c r="T7">
+        <v>241</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F7">
+        <v>3926257</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="11"/>
+      <c r="AA7">
+        <v>59</v>
+      </c>
+      <c r="AB7">
+        <v>232</v>
+      </c>
+      <c r="AC7">
+        <v>241</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="2"/>
-        <v>2.25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>3926257</v>
+      </c>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="J8">
+        <v>176</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E8">
+        <v>45136</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="11"/>
+      <c r="R8">
+        <v>41</v>
+      </c>
+      <c r="S8">
+        <v>239</v>
+      </c>
+      <c r="T8">
+        <v>112</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="F8">
+        <v>2748272</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="11"/>
+      <c r="AA8">
+        <v>41</v>
+      </c>
+      <c r="AB8">
+        <v>239</v>
+      </c>
+      <c r="AC8">
+        <v>112</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>2748272</v>
+      </c>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="11"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="J9">
+        <v>176</v>
+      </c>
+      <c r="K9">
+        <v>240</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E9">
+        <v>45296</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11"/>
+      <c r="R9">
+        <v>168</v>
+      </c>
+      <c r="S9">
+        <v>239</v>
+      </c>
+      <c r="T9">
+        <v>41</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="F9">
+        <v>11071273</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="11"/>
+      <c r="AA9">
+        <v>168</v>
+      </c>
+      <c r="AB9">
+        <v>239</v>
+      </c>
+      <c r="AC9">
+        <v>41</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11071273</v>
+      </c>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="11"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="I10">
+        <v>160</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>147</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E10">
+        <v>10496915</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="11"/>
+      <c r="R10">
+        <v>239</v>
+      </c>
+      <c r="S10">
+        <v>211</v>
+      </c>
+      <c r="T10">
+        <v>41</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="F10">
+        <v>15717161</v>
+      </c>
+      <c r="V10" s="11"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="11"/>
+      <c r="AA10">
+        <v>239</v>
+      </c>
+      <c r="AB10">
+        <v>211</v>
+      </c>
+      <c r="AC10">
+        <v>41</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>15717161</v>
+      </c>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="11"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>166</v>
+      </c>
+      <c r="J11">
+        <v>166</v>
+      </c>
+      <c r="K11">
+        <v>166</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E11">
+        <v>10921638</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="R11">
+        <v>239</v>
+      </c>
+      <c r="S11">
+        <v>116</v>
+      </c>
+      <c r="T11">
+        <v>41</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="F11">
+        <v>15692841</v>
+      </c>
+      <c r="V11" s="11"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="11"/>
+      <c r="AA11">
+        <v>239</v>
+      </c>
+      <c r="AB11">
+        <v>116</v>
+      </c>
+      <c r="AC11">
+        <v>41</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>15692841</v>
+      </c>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="11"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>255</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E12">
+        <v>16777215</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="11"/>
+      <c r="R12">
+        <v>239</v>
+      </c>
+      <c r="S12">
+        <v>41</v>
+      </c>
+      <c r="T12">
+        <v>41</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F12">
+        <v>15673641</v>
+      </c>
+      <c r="V12" s="11"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="11"/>
+      <c r="AA12">
+        <v>239</v>
+      </c>
+      <c r="AB12">
+        <v>41</v>
+      </c>
+      <c r="AC12">
+        <v>41</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>15673641</v>
+      </c>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="11"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>1.8</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>1.4400000000000002</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>7.5</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f>B21*2^C21</f>
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <f>D21*0.8</f>
-        <v>3.2</v>
-      </c>
-      <c r="F21">
-        <f>D21*1.5</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22">
         <v>30</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <f>B22*2^C22</f>
-        <v>240</v>
-      </c>
-      <c r="E22">
-        <f>D22*0.8</f>
-        <v>192</v>
-      </c>
-      <c r="F22">
-        <f>D22*1.5</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
         <v>10</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <f>B23*2^C23</f>
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <f>D23*0.8</f>
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <f>D23*1.5</f>
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Trader_Price_List.xlsx
+++ b/Trader_Price_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninonaru\Desktop\Game mods\Mindustry logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninonaru\Desktop\Game mods\Mindustry\Mindustry logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6120378-B95D-41E8-98A8-95E7689B796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4E14E5-8D7A-4E59-9702-C1B46716E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80F1328F-6F9C-4C59-B400-C3A42F8776D9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{80F1328F-6F9C-4C59-B400-C3A42F8776D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>銅</t>
     <rPh sb="0" eb="1">
@@ -228,11 +228,35 @@
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>工数</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倍率</t>
+    <rPh sb="0" eb="2">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価値</t>
+    <rPh sb="0" eb="2">
+      <t>カチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +505,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,830 +858,1088 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B06547-51D5-4F54-8308-CB4342E19EF7}">
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.125" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1">
+        <v>1.2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1">
+        <f>C1</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="R1" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="X2" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y2" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="AA1" t="s">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AG2" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH2" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI2" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ2" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <f>B3*$C$1^C3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="E2">
+      <c r="H3">
         <v>0.5</v>
       </c>
-      <c r="H2">
-        <f>1/I2</f>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <f>H3*$I$1^I3</f>
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <f>1/O3</f>
         <v>4.608294930875576E-3</v>
       </c>
-      <c r="I2">
+      <c r="O3">
         <v>217</v>
       </c>
-      <c r="J2">
+      <c r="P3">
         <v>217</v>
       </c>
-      <c r="K2">
+      <c r="Q3">
         <v>217</v>
       </c>
-      <c r="L2">
-        <f>I2*256*256+J2*256+K2</f>
+      <c r="R3">
+        <f>O3*256*256+P3*256+Q3</f>
         <v>14277081</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="R2">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="X3">
         <v>217</v>
       </c>
-      <c r="S2">
+      <c r="Y3">
         <v>217</v>
       </c>
-      <c r="T2">
+      <c r="Z3">
         <v>217</v>
       </c>
-      <c r="U2">
-        <f>R2*256*256+S2*256+T2</f>
+      <c r="AA3">
+        <f>X3*256*256+Y3*256+Z3</f>
         <v>14277081</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="AA2">
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AG3">
         <v>180</v>
       </c>
-      <c r="AB2">
+      <c r="AH3">
         <v>180</v>
       </c>
-      <c r="AC2">
+      <c r="AI3">
         <v>180</v>
       </c>
-      <c r="AD2">
-        <f>AA2*256*256+AB2*256+AC2</f>
+      <c r="AJ3">
+        <f>AG3*256*256+AH3*256+AI3</f>
         <v>11842740</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1.2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4:D24" si="0">B4*$C$1^C4</f>
+        <v>1.2</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>I3*256*256+J3*256+K3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="11"/>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f>R3*256*256+S3*256+T3</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="11"/>
-      <c r="AA3">
+      <c r="I4">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="24">
+        <f t="shared" ref="J4:J13" si="1">H4*$I$1^I4</f>
+        <v>1.3145341380123987</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>O4*256*256+P4*256+Q4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="11"/>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>X4*256*256+Y4*256+Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="11"/>
+      <c r="AG4">
         <v>41</v>
       </c>
-      <c r="AB3">
+      <c r="AH4">
         <v>41</v>
       </c>
-      <c r="AC3">
+      <c r="AI4">
         <v>239</v>
       </c>
-      <c r="AD3">
-        <f>AA3*256*256+AB3*256+AC3</f>
+      <c r="AJ4">
+        <f>AG4*256*256+AH4*256+AI4</f>
         <v>2697711</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="11"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="11"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <f>D4+D7</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>2.5919999999999996</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="1"/>
+        <v>1.971801207018598</v>
+      </c>
+      <c r="O5">
+        <v>126</v>
+      </c>
+      <c r="P5">
+        <v>53</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R13" si="2">O5*256*256+P5*256+Q5</f>
+        <v>8271118</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="11"/>
+      <c r="X5">
+        <v>34</v>
+      </c>
+      <c r="Y5">
+        <v>14</v>
+      </c>
+      <c r="Z5">
+        <v>186</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA13" si="3">X5*256*256+Y5*256+Z5</f>
+        <v>2231994</v>
+      </c>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="11"/>
+      <c r="AG5">
+        <v>41</v>
+      </c>
+      <c r="AH5">
+        <v>239</v>
+      </c>
+      <c r="AI5">
+        <v>239</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" ref="AJ5:AJ13" si="4">AG5*256*256+AH5*256+AI5</f>
+        <v>2748399</v>
+      </c>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="11"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>D8*2</f>
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>126</v>
-      </c>
-      <c r="J4">
-        <v>53</v>
-      </c>
-      <c r="K4">
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <f>(J3*12+B9)/12</f>
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="O6">
+        <v>255</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>16711680</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="11"/>
+      <c r="X6">
+        <v>41</v>
+      </c>
+      <c r="Y6">
+        <v>88</v>
+      </c>
+      <c r="Z6">
+        <v>239</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="3"/>
+        <v>2709743</v>
+      </c>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="11"/>
+      <c r="AG6">
+        <v>239</v>
+      </c>
+      <c r="AH6">
+        <v>239</v>
+      </c>
+      <c r="AI6">
+        <v>41</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="4"/>
+        <v>15724329</v>
+      </c>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="11"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <f>(J13*80+J3*10+D14)/20</f>
+        <v>5.8340000000000005</v>
+      </c>
+      <c r="I7">
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="1"/>
+        <v>9.2027905933972001</v>
+      </c>
+      <c r="O7">
+        <v>255</v>
+      </c>
+      <c r="P7">
+        <v>192</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>16760832</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="11"/>
+      <c r="X7">
+        <v>59</v>
+      </c>
+      <c r="Y7">
+        <v>146</v>
+      </c>
+      <c r="Z7">
+        <v>241</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="3"/>
+        <v>3904241</v>
+      </c>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="11"/>
+      <c r="AG7">
+        <v>239</v>
+      </c>
+      <c r="AH7">
+        <v>41</v>
+      </c>
+      <c r="AI7">
+        <v>41</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="4"/>
+        <v>15673641</v>
+      </c>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="11"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="1"/>
+        <v>0.52581365520495948</v>
+      </c>
+      <c r="O8">
+        <v>255</v>
+      </c>
+      <c r="P8">
+        <v>255</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>16776960</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="11"/>
+      <c r="X8">
+        <v>59</v>
+      </c>
+      <c r="Y8">
+        <v>232</v>
+      </c>
+      <c r="Z8">
+        <v>241</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="3"/>
+        <v>3926257</v>
+      </c>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="11"/>
+      <c r="AG8">
+        <v>59</v>
+      </c>
+      <c r="AH8">
+        <v>232</v>
+      </c>
+      <c r="AI8">
+        <v>241</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="4"/>
+        <v>3926257</v>
+      </c>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="11"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="1"/>
+        <v>1.051627310409919</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>176</v>
+      </c>
+      <c r="Q9">
+        <v>80</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>45136</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="11"/>
+      <c r="X9">
+        <v>41</v>
+      </c>
+      <c r="Y9">
+        <v>239</v>
+      </c>
+      <c r="Z9">
+        <v>112</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="3"/>
+        <v>2748272</v>
+      </c>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="11"/>
+      <c r="AG9">
+        <v>41</v>
+      </c>
+      <c r="AH9">
+        <v>239</v>
+      </c>
+      <c r="AI9">
+        <v>112</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="4"/>
+        <v>2748272</v>
+      </c>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="11"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <f>(J13*40+D6)/3</f>
+        <v>14.533333333333333</v>
+      </c>
+      <c r="I10">
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="1"/>
+        <v>22.925475366936229</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>176</v>
+      </c>
+      <c r="Q10">
+        <v>240</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>45296</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="11"/>
+      <c r="X10">
+        <v>168</v>
+      </c>
+      <c r="Y10">
+        <v>239</v>
+      </c>
+      <c r="Z10">
+        <v>41</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="3"/>
+        <v>11071273</v>
+      </c>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="11"/>
+      <c r="AG10">
+        <v>168</v>
+      </c>
+      <c r="AH10">
+        <v>239</v>
+      </c>
+      <c r="AI10">
+        <v>41</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="4"/>
+        <v>11071273</v>
+      </c>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="11"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="O11">
+        <v>160</v>
+      </c>
+      <c r="P11">
+        <v>43</v>
+      </c>
+      <c r="Q11">
+        <v>147</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>10496915</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="11"/>
+      <c r="X11">
+        <v>239</v>
+      </c>
+      <c r="Y11">
+        <v>211</v>
+      </c>
+      <c r="Z11">
+        <v>41</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="3"/>
+        <v>15717161</v>
+      </c>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="11"/>
+      <c r="AG11">
+        <v>239</v>
+      </c>
+      <c r="AH11">
+        <v>211</v>
+      </c>
+      <c r="AI11">
+        <v>41</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="4"/>
+        <v>15717161</v>
+      </c>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="11"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>D8+D7*2</f>
+        <v>2.7</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" si="0"/>
+        <v>3.8879999999999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="O12">
+        <v>166</v>
+      </c>
+      <c r="P12">
+        <v>166</v>
+      </c>
+      <c r="Q12">
+        <v>166</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>10921638</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="X12">
+        <v>239</v>
+      </c>
+      <c r="Y12">
+        <v>116</v>
+      </c>
+      <c r="Z12">
+        <v>41</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="3"/>
+        <v>15692841</v>
+      </c>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="11"/>
+      <c r="AG12">
+        <v>239</v>
+      </c>
+      <c r="AH12">
+        <v>116</v>
+      </c>
+      <c r="AI12">
+        <v>41</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="4"/>
+        <v>15692841</v>
+      </c>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="11"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>D9*2+J5*15</f>
+        <v>35.577018105278967</v>
+      </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="24">
+        <f t="shared" si="0"/>
+        <v>46.767204828074391</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>255</v>
+      </c>
+      <c r="P13">
+        <v>255</v>
+      </c>
+      <c r="Q13">
+        <v>255</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>16777215</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="11"/>
+      <c r="X13">
+        <v>239</v>
+      </c>
+      <c r="Y13">
+        <v>41</v>
+      </c>
+      <c r="Z13">
+        <v>41</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="3"/>
+        <v>15673641</v>
+      </c>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="11"/>
+      <c r="AG13">
+        <v>239</v>
+      </c>
+      <c r="AH13">
+        <v>41</v>
+      </c>
+      <c r="AI13">
+        <v>41</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="4"/>
+        <v>15673641</v>
+      </c>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="11"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>D10*4+D7*10</f>
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" si="0"/>
+        <v>31.68</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>D3*3+D4*4+D9*2+D12*3</f>
+        <v>25.463999999999999</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="24">
+        <f t="shared" si="0"/>
+        <v>44.001791999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1.8</v>
+      </c>
+      <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="24">
+        <f t="shared" si="0"/>
+        <v>2.3661614484223179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L12" si="0">I4*256*256+J4*256+K4</f>
-        <v>8271118</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="11"/>
-      <c r="R4">
-        <v>34</v>
-      </c>
-      <c r="S4">
-        <v>14</v>
-      </c>
-      <c r="T4">
-        <v>186</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U12" si="1">R4*256*256+S4*256+T4</f>
-        <v>2231994</v>
-      </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="11"/>
-      <c r="AA4">
-        <v>41</v>
-      </c>
-      <c r="AB4">
-        <v>239</v>
-      </c>
-      <c r="AC4">
-        <v>239</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" ref="AD4:AD12" si="2">AA4*256*256+AB4*256+AC4</f>
-        <v>2748399</v>
-      </c>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="11"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B17">
+        <f>D16+D18</f>
+        <v>10.411110373058197</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="24">
+        <f t="shared" si="0"/>
+        <v>14.991998937203803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f>D4*2+D7*2+D8</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C18">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="24">
+        <f t="shared" si="0"/>
+        <v>8.0449489246358787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>3.5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <f>D6*3+D22*2</f>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="C23">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="24">
+        <f t="shared" si="0"/>
+        <v>29.655890153559707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <f>D19+J9*4</f>
+        <v>7.2065092416396759</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>255</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="D24" s="24">
         <f t="shared" si="0"/>
-        <v>16711680</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="11"/>
-      <c r="R5">
-        <v>41</v>
-      </c>
-      <c r="S5">
-        <v>88</v>
-      </c>
-      <c r="T5">
-        <v>239</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="1"/>
-        <v>2709743</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="11"/>
-      <c r="AA5">
-        <v>239</v>
-      </c>
-      <c r="AB5">
-        <v>239</v>
-      </c>
-      <c r="AC5">
-        <v>41</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="2"/>
-        <v>15724329</v>
-      </c>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="11"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>255</v>
-      </c>
-      <c r="J6">
-        <v>192</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>16760832</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="11"/>
-      <c r="R6">
-        <v>59</v>
-      </c>
-      <c r="S6">
-        <v>146</v>
-      </c>
-      <c r="T6">
-        <v>241</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="1"/>
-        <v>3904241</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="11"/>
-      <c r="AA6">
-        <v>239</v>
-      </c>
-      <c r="AB6">
-        <v>41</v>
-      </c>
-      <c r="AC6">
-        <v>41</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="2"/>
-        <v>15673641</v>
-      </c>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="11"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>0.4</v>
-      </c>
-      <c r="I7">
-        <v>255</v>
-      </c>
-      <c r="J7">
-        <v>255</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>16776960</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="11"/>
-      <c r="R7">
-        <v>59</v>
-      </c>
-      <c r="S7">
-        <v>232</v>
-      </c>
-      <c r="T7">
-        <v>241</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="1"/>
-        <v>3926257</v>
-      </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="11"/>
-      <c r="AA7">
-        <v>59</v>
-      </c>
-      <c r="AB7">
-        <v>232</v>
-      </c>
-      <c r="AC7">
-        <v>241</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="2"/>
-        <v>3926257</v>
-      </c>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="11"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>0.8</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>176</v>
-      </c>
-      <c r="K8">
-        <v>80</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>45136</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="11"/>
-      <c r="R8">
-        <v>41</v>
-      </c>
-      <c r="S8">
-        <v>239</v>
-      </c>
-      <c r="T8">
-        <v>112</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="1"/>
-        <v>2748272</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="11"/>
-      <c r="AA8">
-        <v>41</v>
-      </c>
-      <c r="AB8">
-        <v>239</v>
-      </c>
-      <c r="AC8">
-        <v>112</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="2"/>
-        <v>2748272</v>
-      </c>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="11"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>176</v>
-      </c>
-      <c r="K9">
-        <v>240</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>45296</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="11"/>
-      <c r="R9">
-        <v>168</v>
-      </c>
-      <c r="S9">
-        <v>239</v>
-      </c>
-      <c r="T9">
-        <v>41</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="1"/>
-        <v>11071273</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="11"/>
-      <c r="AA9">
-        <v>168</v>
-      </c>
-      <c r="AB9">
-        <v>239</v>
-      </c>
-      <c r="AC9">
-        <v>41</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="2"/>
-        <v>11071273</v>
-      </c>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="11"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="I10">
-        <v>160</v>
-      </c>
-      <c r="J10">
-        <v>43</v>
-      </c>
-      <c r="K10">
-        <v>147</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>10496915</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="11"/>
-      <c r="R10">
-        <v>239</v>
-      </c>
-      <c r="S10">
-        <v>211</v>
-      </c>
-      <c r="T10">
-        <v>41</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="1"/>
-        <v>15717161</v>
-      </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="11"/>
-      <c r="AA10">
-        <v>239</v>
-      </c>
-      <c r="AB10">
-        <v>211</v>
-      </c>
-      <c r="AC10">
-        <v>41</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="2"/>
-        <v>15717161</v>
-      </c>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="11"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>0.8</v>
-      </c>
-      <c r="I11">
-        <v>166</v>
-      </c>
-      <c r="J11">
-        <v>166</v>
-      </c>
-      <c r="K11">
-        <v>166</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>10921638</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="R11">
-        <v>239</v>
-      </c>
-      <c r="S11">
-        <v>116</v>
-      </c>
-      <c r="T11">
-        <v>41</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="1"/>
-        <v>15692841</v>
-      </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="11"/>
-      <c r="AA11">
-        <v>239</v>
-      </c>
-      <c r="AB11">
-        <v>116</v>
-      </c>
-      <c r="AC11">
-        <v>41</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>15692841</v>
-      </c>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="11"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>255</v>
-      </c>
-      <c r="J12">
-        <v>255</v>
-      </c>
-      <c r="K12">
-        <v>255</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>16777215</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="11"/>
-      <c r="R12">
-        <v>239</v>
-      </c>
-      <c r="S12">
-        <v>41</v>
-      </c>
-      <c r="T12">
-        <v>41</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="1"/>
-        <v>15673641</v>
-      </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="11"/>
-      <c r="AA12">
-        <v>239</v>
-      </c>
-      <c r="AB12">
-        <v>41</v>
-      </c>
-      <c r="AC12">
-        <v>41</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="2"/>
-        <v>15673641</v>
-      </c>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="11"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
+        <v>10.377373307961133</v>
       </c>
     </row>
   </sheetData>
